--- a/Test Summaries/Test Summary 06-09-19 512 Bytes.xlsx
+++ b/Test Summaries/Test Summary 06-09-19 512 Bytes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalee\Documents\Work\City University\Performance Testing\Test Summaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFFCF72-7590-49D2-86EA-BD6B9CF5CFB9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1F3831-8AD8-4FD1-9FC7-13EF391FF026}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -676,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="D58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N89" sqref="N89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2297,19 +2297,45 @@
       <c r="A81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C81" s="18"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="16"/>
-      <c r="L81" s="16"/>
-      <c r="M81" s="16"/>
-      <c r="N81" s="16"/>
-      <c r="O81" s="6"/>
+      <c r="C81" s="18">
+        <v>1228</v>
+      </c>
+      <c r="D81" s="24">
+        <v>1104</v>
+      </c>
+      <c r="E81" s="16">
+        <v>42</v>
+      </c>
+      <c r="F81" s="16">
+        <v>42</v>
+      </c>
+      <c r="G81" s="16">
+        <v>42</v>
+      </c>
+      <c r="H81" s="16">
+        <v>42</v>
+      </c>
+      <c r="I81" s="16">
+        <v>42</v>
+      </c>
+      <c r="J81" s="16">
+        <v>42</v>
+      </c>
+      <c r="K81" s="16">
+        <v>41</v>
+      </c>
+      <c r="L81" s="16">
+        <v>41</v>
+      </c>
+      <c r="M81" s="16">
+        <v>41</v>
+      </c>
+      <c r="N81" s="16">
+        <v>41</v>
+      </c>
+      <c r="O81" s="6">
+        <v>918</v>
+      </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
@@ -2416,55 +2442,133 @@
       <c r="A87" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C87" s="17"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="14"/>
-      <c r="K87" s="14"/>
-      <c r="L87" s="14"/>
-      <c r="M87" s="14"/>
-      <c r="N87" s="14"/>
-      <c r="O87" s="4"/>
+      <c r="C87" s="17">
+        <v>805</v>
+      </c>
+      <c r="D87" s="20">
+        <v>724</v>
+      </c>
+      <c r="E87" s="14">
+        <v>51</v>
+      </c>
+      <c r="F87" s="14">
+        <v>51</v>
+      </c>
+      <c r="G87" s="14">
+        <v>51</v>
+      </c>
+      <c r="H87" s="14">
+        <v>51</v>
+      </c>
+      <c r="I87" s="14">
+        <v>51</v>
+      </c>
+      <c r="J87" s="14">
+        <v>51</v>
+      </c>
+      <c r="K87" s="14">
+        <v>50</v>
+      </c>
+      <c r="L87" s="14">
+        <v>50</v>
+      </c>
+      <c r="M87" s="14">
+        <v>50</v>
+      </c>
+      <c r="N87" s="14">
+        <v>51</v>
+      </c>
+      <c r="O87" s="4">
+        <v>777</v>
+      </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C88" s="19"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="15"/>
-      <c r="L88" s="15"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15"/>
-      <c r="O88" s="5"/>
+      <c r="C88" s="19">
+        <v>751</v>
+      </c>
+      <c r="D88" s="21">
+        <v>675</v>
+      </c>
+      <c r="E88" s="15">
+        <v>55</v>
+      </c>
+      <c r="F88" s="15">
+        <v>55</v>
+      </c>
+      <c r="G88" s="15">
+        <v>55</v>
+      </c>
+      <c r="H88" s="15">
+        <v>55</v>
+      </c>
+      <c r="I88" s="15">
+        <v>55</v>
+      </c>
+      <c r="J88" s="15">
+        <v>55</v>
+      </c>
+      <c r="K88" s="15">
+        <v>53</v>
+      </c>
+      <c r="L88" s="15">
+        <v>53</v>
+      </c>
+      <c r="M88" s="15">
+        <v>53</v>
+      </c>
+      <c r="N88" s="15">
+        <v>53</v>
+      </c>
+      <c r="O88" s="5">
+        <v>730</v>
+      </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C89" s="18"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="16"/>
-      <c r="J89" s="16"/>
-      <c r="K89" s="16"/>
-      <c r="L89" s="16"/>
-      <c r="M89" s="16"/>
-      <c r="N89" s="16"/>
-      <c r="O89" s="6"/>
+      <c r="C89" s="18">
+        <v>721</v>
+      </c>
+      <c r="D89" s="24">
+        <v>648</v>
+      </c>
+      <c r="E89" s="16">
+        <v>50</v>
+      </c>
+      <c r="F89" s="16">
+        <v>50</v>
+      </c>
+      <c r="G89" s="16">
+        <v>50</v>
+      </c>
+      <c r="H89" s="16">
+        <v>51</v>
+      </c>
+      <c r="I89" s="16">
+        <v>51</v>
+      </c>
+      <c r="J89" s="16">
+        <v>51</v>
+      </c>
+      <c r="K89" s="16">
+        <v>50</v>
+      </c>
+      <c r="L89" s="16">
+        <v>50</v>
+      </c>
+      <c r="M89" s="16">
+        <v>50</v>
+      </c>
+      <c r="N89" s="16">
+        <v>50</v>
+      </c>
+      <c r="O89" s="6">
+        <v>792</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
